--- a/صيدليات دكتور مصطفي طلعت_2026-01-03_10-35.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-03_10-35.xlsx
@@ -56,6 +56,12 @@
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>10:1</t>
+  </si>
+  <si>
     <t>GOURYST 0.5 MG 100 TABS.</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
     <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
   </si>
   <si>
+    <t>MUCOPHYLLINE SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
     <t>NEUROVIT 6 I.M. AMPS</t>
   </si>
   <si>
@@ -77,6 +89,12 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
   </si>
   <si>
@@ -89,10 +107,19 @@
     <t>3:1</t>
   </si>
   <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
     <t>4:1</t>
+  </si>
+  <si>
+    <t>YEAST MEPACO 60 TABS</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
@@ -830,11 +857,11 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M9" s="9"/>
       <c r="N9" s="10">
-        <v>0.10000000000000001</v>
+        <v>0.67000000000000004</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -850,17 +877,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="M10" s="9"/>
       <c r="N10" s="10">
-        <v>1</v>
+        <v>0.10000000000000001</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -868,7 +895,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -876,17 +903,17 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M11" s="9"/>
       <c r="N11" s="10">
-        <v>0.17000000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -908,7 +935,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>332</v>
+        <v>50</v>
       </c>
       <c r="M12" s="9"/>
       <c r="N12" s="10">
@@ -934,11 +961,11 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>169.19999999999999</v>
+        <v>11</v>
       </c>
       <c r="M13" s="9"/>
       <c r="N13" s="10">
-        <v>0.29999999999999999</v>
+        <v>0.17000000000000001</v>
       </c>
     </row>
     <row r="14" ht="24.75" customHeight="1">
@@ -960,7 +987,7 @@
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>73.319999999999993</v>
+        <v>332</v>
       </c>
       <c r="M14" s="9"/>
       <c r="N14" s="10">
@@ -986,11 +1013,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M15" s="9"/>
       <c r="N15" s="10">
-        <v>0.33000000000000002</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1012,45 +1039,201 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>4</v>
+        <v>169.19999999999999</v>
       </c>
       <c r="M16" s="9"/>
       <c r="N16" s="10">
+        <v>0.29999999999999999</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c t="s" r="B17" s="7">
+        <v>30</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c t="s" r="H17" s="8">
+        <v>31</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9">
+        <v>73.319999999999993</v>
+      </c>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="25.5" customHeight="1">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c t="s" r="B18" s="7">
+        <v>32</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c t="s" r="H18" s="8">
+        <v>25</v>
+      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9">
+        <v>116</v>
+      </c>
+      <c r="M18" s="9"/>
+      <c r="N18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" ht="24.75" customHeight="1">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c t="s" r="B19" s="7">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c t="s" r="H19" s="8">
+        <v>25</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="9">
+        <v>30</v>
+      </c>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" ht="25.5" customHeight="1">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c t="s" r="B20" s="7">
+        <v>34</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c t="s" r="H20" s="8">
+        <v>35</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9">
+        <v>17</v>
+      </c>
+      <c r="M20" s="9"/>
+      <c r="N20" s="10">
+        <v>0.33000000000000002</v>
+      </c>
+    </row>
+    <row r="21" ht="24.75" customHeight="1">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c t="s" r="B21" s="7">
+        <v>36</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c t="s" r="H21" s="8">
+        <v>8</v>
+      </c>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9">
+        <v>60</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c t="s" r="B22" s="7">
+        <v>37</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c t="s" r="H22" s="8">
+        <v>38</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9">
+        <v>4</v>
+      </c>
+      <c r="M22" s="9"/>
+      <c r="N22" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="17" ht="26.25" customHeight="1">
-      <c r="K17" s="11">
-        <v>983.10000000000002</v>
-      </c>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="12">
-        <v>30</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c t="s" r="F18" s="13">
-        <v>31</v>
-      </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-      <c t="s" r="I18" s="15">
-        <v>32</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="15"/>
+    <row r="23" ht="25.5" customHeight="1">
+      <c r="K23" s="11">
+        <v>1294.0999999999999</v>
+      </c>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" ht="17.25" customHeight="1">
+      <c t="s" r="A24" s="12">
+        <v>39</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c t="s" r="F24" s="13">
+        <v>40</v>
+      </c>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+      <c t="s" r="I24" s="15">
+        <v>41</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="68">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1097,10 +1280,28 @@
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
-    <mergeCell ref="K17:N17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="K23:N23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:N24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
